--- a/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6454</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="D3" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -868,64 +766,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -571,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012245</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>广发金融地产精选股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3853</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>79.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0241</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -647,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -685,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>广发金融地产精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -733,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -761,6 +778,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
+++ b/数据整理/stocks/A股/上证主板/600657-信达地产.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,188 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012245</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票C</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009999</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方中国红利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007084</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天治转型升级混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -834,36 +699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012245</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>广发金融地产精选股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3853</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -872,36 +737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.14</t>
+          <t>79.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0241</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -910,36 +775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>99.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -948,36 +813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>广发金融地产精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -996,26 +861,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1024,6 +889,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
